--- a/_OCFW/OCFW Class Transitions.xlsx
+++ b/_OCFW/OCFW Class Transitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="23620" windowWidth="12980" windowHeight="15920" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="31440" windowHeight="23560" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="OCFW" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="ASP4" sheetId="14" r:id="rId3"/>
     <sheet name="OCFW 4-class" sheetId="15" r:id="rId4"/>
     <sheet name="UM 4-class" sheetId="16" r:id="rId5"/>
+    <sheet name="test" sheetId="17" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="59">
   <si>
     <t>Succession Type</t>
   </si>
@@ -318,8 +319,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -443,7 +448,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -493,6 +498,8 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -542,6 +549,8 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2236,7 +2245,7 @@
         <v>1.3333333333333334E-2</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" ref="C9:G10" si="1">1/D3</f>
+        <f t="shared" ref="D10:F10" si="1">1/D3</f>
         <v>6.6666666666666671E-3</v>
       </c>
       <c r="E10" s="7">
@@ -2612,7 +2621,7 @@
         <v>0.18330844810123939</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" ref="D31:G31" si="10">E17/$H$17</f>
+        <f t="shared" ref="E31:G31" si="10">E17/$H$17</f>
         <v>0.21671034633978262</v>
       </c>
       <c r="F31" s="21">
@@ -5858,8 +5867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7082,8 +7091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7611,7 +7620,7 @@
         <v>0.22913615824960651</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" ref="E31:H31" si="9">E17/$H$17</f>
+        <f t="shared" ref="E31:G31" si="9">E17/$H$17</f>
         <v>0.27088864003591834</v>
       </c>
       <c r="F31" s="21">
@@ -8185,6 +8194,1202 @@
       <c r="I63">
         <f>1/H63</f>
         <v>9.4442266798381613</v>
+      </c>
+      <c r="J63">
+        <f>J58+J62</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6">
+        <v>175</v>
+      </c>
+      <c r="D2" s="6">
+        <v>250</v>
+      </c>
+      <c r="E2" s="6">
+        <v>160</v>
+      </c>
+      <c r="F2" s="6">
+        <v>250</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>75</v>
+      </c>
+      <c r="D3" s="6">
+        <v>150</v>
+      </c>
+      <c r="E3" s="6">
+        <v>66</v>
+      </c>
+      <c r="F3" s="6">
+        <v>100</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7">
+        <f>1/C2</f>
+        <v>5.7142857142857143E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <f>1/D2</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" ref="D9:F10" si="0">1/E2</f>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <f>1/C3</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7">
+        <f>C10</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" ref="D12:F12" si="1">D10</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <f>1/C6</f>
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" ref="D13:F13" si="2">1/D6</f>
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <f>C9+C11+C13</f>
+        <v>6.9047619047619052E-2</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" ref="D14:F14" si="3">D9+D11</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="3"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
+        <f>SUM(C14:G14)</f>
+        <v>8.3297619047619065E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7">
+        <f t="shared" ref="D15:F15" si="4">D12+D13</f>
+        <v>5.6666666666666671E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="4"/>
+        <v>6.5151515151515155E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7">
+        <f>SUM(C15:G15)</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7">
+        <f>C9+C10+C13</f>
+        <v>6.9047619047619052E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <f>D9+D10+D13</f>
+        <v>6.0666666666666674E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ref="D17:F17" si="5">E9+E10+E13</f>
+        <v>7.140151515151516E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="5"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
+        <f>SUM(C17:G17)</f>
+        <v>0.26511580086580089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7">
+        <f>C14+C15</f>
+        <v>6.9047619047619052E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" ref="D18:F18" si="6">D14+D15</f>
+        <v>6.0666666666666674E-2</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="6"/>
+        <v>7.140151515151516E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="6"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <f>G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="e">
+        <f>1/G6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <f t="shared" ref="E26" si="7">SUM(E21:E23)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <f>SUM(F21:F25)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="e">
+        <f>SUM(G21:G25)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <f>C11/C14</f>
+        <v>0.19310344827586207</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:G29" si="8">E11/E14</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G28" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="C30">
+        <v>0.2092</v>
+      </c>
+      <c r="D30">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.2064</v>
+      </c>
+      <c r="G30">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="H30">
+        <f>SUM(C30:G30)</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21">
+        <f>C17/$H$17</f>
+        <v>0.26044324337563834</v>
+      </c>
+      <c r="D31" s="21">
+        <f>D17/$H$17</f>
+        <v>0.2288308221107333</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" ref="E31:G31" si="9">E17/$H$17</f>
+        <v>0.26932199030889875</v>
+      </c>
+      <c r="F31" s="21">
+        <f t="shared" si="9"/>
+        <v>0.2414039442047296</v>
+      </c>
+      <c r="G31" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>SUM(C31:G31)</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21">
+        <f>C14/C17</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="21">
+        <f t="shared" ref="D32:F32" si="10">D14/D17</f>
+        <v>6.5934065934065922E-2</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="10"/>
+        <v>8.7533156498673728E-2</v>
+      </c>
+      <c r="F32" s="21">
+        <f t="shared" si="10"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G32" s="21" t="e">
+        <f>G14/G17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32">
+        <f>H14/$H$14</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21">
+        <f>C15/C17</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="21">
+        <f t="shared" ref="D33:G33" si="11">D15/D17</f>
+        <v>0.93406593406593397</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="11"/>
+        <v>0.91246684350132623</v>
+      </c>
+      <c r="F33" s="21">
+        <f t="shared" si="11"/>
+        <v>0.9375</v>
+      </c>
+      <c r="G33" s="21" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33">
+        <f>H15/$H$15</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <f>C32</f>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f>E32</f>
+        <v>8.7533156498673728E-2</v>
+      </c>
+      <c r="F36">
+        <f>F32</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G36" t="e">
+        <f>G32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <f>E33</f>
+        <v>0.91246684350132623</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>F33</f>
+        <v>0.9375</v>
+      </c>
+      <c r="G39" t="e">
+        <f>(1/G3)/G17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="e">
+        <f>(G13)/G17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <f>SUM(C36:C40)</f>
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:F41" si="12">SUM(E36:E40)</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G41" t="e">
+        <f>SUM(G36:G40)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7">
+        <f>E38/E33</f>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>F39/F33</f>
+        <v>1</v>
+      </c>
+      <c r="G46" t="e">
+        <f>G39/G33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="e">
+        <f>G40/G33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <f>SUM(C44:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:G48" si="13">SUM(E44:E47)</f>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G48" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50">
+        <v>0.15</v>
+      </c>
+      <c r="D50">
+        <v>0.05</v>
+      </c>
+      <c r="E50">
+        <v>0.25</v>
+      </c>
+      <c r="F50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H50">
+        <f>SUM(C50:G50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52">
+        <f>C17*C50</f>
+        <v>1.0357142857142858E-2</v>
+      </c>
+      <c r="D52">
+        <f>D17*D50</f>
+        <v>3.0333333333333341E-3</v>
+      </c>
+      <c r="E52">
+        <f>E17*E50</f>
+        <v>1.785037878787879E-2</v>
+      </c>
+      <c r="F52">
+        <f>F17*F50</f>
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="G52">
+        <f>G17*G50</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>SUM(C52:G52)</f>
+        <v>6.6440854978354988E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53">
+        <f>C14*C50</f>
+        <v>1.0357142857142858E-2</v>
+      </c>
+      <c r="D53">
+        <f>D14*D50</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E53">
+        <f>E14*E50</f>
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="F53">
+        <f>F14*F50</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G53">
+        <f>G14*G50</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f>SUM(C53:G53)</f>
+        <v>1.4319642857142859E-2</v>
+      </c>
+      <c r="J53">
+        <f>0.2*0.02+0.1*1/75+0.25*1/315+0.4*0.001+0.05*1/60</f>
+        <v>7.3603174603174611E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54">
+        <f>C15*C50</f>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f>D15*D50</f>
+        <v>2.8333333333333335E-3</v>
+      </c>
+      <c r="E54">
+        <f>E15*E50</f>
+        <v>1.6287878787878789E-2</v>
+      </c>
+      <c r="F54">
+        <f>F15*F50</f>
+        <v>3.3000000000000008E-2</v>
+      </c>
+      <c r="G54">
+        <f>G15*G50</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>SUM(C54:G54)</f>
+        <v>5.2121212121212131E-2</v>
+      </c>
+      <c r="J54">
+        <f>H14/H17</f>
+        <v>0.3141933403274727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="7">
+        <f>1/C58</f>
+        <v>149.92503748125938</v>
+      </c>
+      <c r="C58">
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="D58">
+        <f>C58/C63</f>
+        <v>0.11608075182735816</v>
+      </c>
+      <c r="F58">
+        <f>F63*D58</f>
+        <v>7.7125043979399191E-3</v>
+      </c>
+      <c r="H58">
+        <f>H53</f>
+        <v>1.4319642857142859E-2</v>
+      </c>
+      <c r="I58">
+        <f>1/H58</f>
+        <v>69.834143908217968</v>
+      </c>
+      <c r="J58">
+        <f>H58/H63</f>
+        <v>0.2155246626764194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="7">
+        <f t="shared" ref="B59:B63" si="14">1/C59</f>
+        <v>45.004500450045008</v>
+      </c>
+      <c r="C59">
+        <v>2.222E-2</v>
+      </c>
+      <c r="D59">
+        <f>C59/C63</f>
+        <v>0.38670379394361298</v>
+      </c>
+      <c r="F59">
+        <f>F63*D59</f>
+        <v>2.5692930692987261E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="7">
+        <f t="shared" si="14"/>
+        <v>35.001750087504377</v>
+      </c>
+      <c r="C62">
+        <v>2.8570000000000002E-2</v>
+      </c>
+      <c r="D62">
+        <f>C62/C63</f>
+        <v>0.49721545422902896</v>
+      </c>
+      <c r="F62">
+        <f>F63*D62</f>
+        <v>3.3035419887427815E-2</v>
+      </c>
+      <c r="H62">
+        <f>H54</f>
+        <v>5.2121212121212131E-2</v>
+      </c>
+      <c r="I62">
+        <f>1/H62</f>
+        <v>19.186046511627904</v>
+      </c>
+      <c r="J62">
+        <f>H62/H63</f>
+        <v>0.78447533732358066</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="7">
+        <f t="shared" si="14"/>
+        <v>17.40341106856944</v>
+      </c>
+      <c r="C63">
+        <v>5.7459999999999997E-2</v>
+      </c>
+      <c r="D63">
+        <f>D58+D59+D62</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F63">
+        <f>H52</f>
+        <v>6.6440854978354988E-2</v>
+      </c>
+      <c r="H63">
+        <f>H58+H62</f>
+        <v>6.6440854978354988E-2</v>
+      </c>
+      <c r="I63">
+        <f>1/H63</f>
+        <v>15.050980309115207</v>
       </c>
       <c r="J63">
         <f>J58+J62</f>

--- a/_OCFW/OCFW Class Transitions.xlsx
+++ b/_OCFW/OCFW Class Transitions.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="31440" windowHeight="23560" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="21180" windowHeight="20040" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OCFW" sheetId="1" r:id="rId1"/>
     <sheet name="UM 2" sheetId="10" r:id="rId2"/>
     <sheet name="ASP4" sheetId="14" r:id="rId3"/>
-    <sheet name="OCFW 4-class" sheetId="15" r:id="rId4"/>
-    <sheet name="UM 4-class" sheetId="16" r:id="rId5"/>
-    <sheet name="test" sheetId="17" r:id="rId6"/>
+    <sheet name="#OCFW 4-class" sheetId="15" r:id="rId4"/>
+    <sheet name="#UM 4-class" sheetId="16" r:id="rId5"/>
+    <sheet name="test 08-30" sheetId="17" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="59">
   <si>
     <t>Succession Type</t>
   </si>
@@ -319,8 +319,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -448,7 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -500,6 +508,10 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -551,6 +563,10 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -884,7 +900,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2060,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5868,7 +5884,8 @@
   <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6268,10 +6285,7 @@
       <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="7" t="e">
-        <f>1/G5</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
@@ -6280,10 +6294,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7" t="e">
-        <f>1/G3</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G25" s="7"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
@@ -6315,7 +6326,7 @@
         <v>24</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:G34" si="0">C11/C14</f>
+        <f t="shared" ref="C33:F34" si="0">C11/C14</f>
         <v>0</v>
       </c>
       <c r="D33">
@@ -6329,10 +6340,6 @@
       <c r="F33">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="G33" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -6354,10 +6361,6 @@
       <c r="F34">
         <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
-      </c>
-      <c r="G34" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -6390,10 +6393,7 @@
         <f t="shared" si="1"/>
         <v>0.24045385118917739</v>
       </c>
-      <c r="G36" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G36" s="21"/>
       <c r="H36">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6423,10 +6423,6 @@
         <f>F14/F17</f>
         <v>4.7186932849364788E-2</v>
       </c>
-      <c r="G37" t="e">
-        <f t="shared" ref="G37" si="2">G14/G17</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="H37">
         <f>H14/$H$14</f>
         <v>1</v>
@@ -6446,19 +6442,15 @@
         <v>0.95281306715063518</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:G38" si="3">E15/E17</f>
+        <f t="shared" ref="E38" si="2">E15/E17</f>
         <v>0.95628415300546443</v>
       </c>
       <c r="F38">
         <f>F15/F17</f>
         <v>0.95281306715063518</v>
       </c>
-      <c r="G38" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="H38">
-        <f t="shared" ref="H38" si="4">H15/$H$15</f>
+        <f t="shared" ref="H38" si="3">H15/$H$15</f>
         <v>1</v>
       </c>
       <c r="I38" s="8"/>
@@ -6498,10 +6490,6 @@
         <f>F37</f>
         <v>4.7186932849364788E-2</v>
       </c>
-      <c r="G41" t="e">
-        <f>G37</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:17">
@@ -6521,9 +6509,6 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:17">
@@ -6544,9 +6529,6 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
@@ -6565,10 +6547,6 @@
         <f>F38</f>
         <v>0.95281306715063518</v>
       </c>
-      <c r="G44" t="e">
-        <f>(1/G5)/G17</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="Q44" s="6"/>
     </row>
     <row r="45" spans="1:17">
@@ -6587,10 +6565,6 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" t="e">
-        <f>(G13+1/G3)/G17</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="Q45" s="6"/>
     </row>
     <row r="46" spans="1:17">
@@ -6602,20 +6576,16 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:F46" si="5">SUM(D41:D45)</f>
+        <f t="shared" ref="D46:F46" si="4">SUM(D41:D45)</f>
         <v>1</v>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G46" t="e">
-        <f>SUM(G41:G45)</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -6640,9 +6610,6 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
@@ -6662,9 +6629,6 @@
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
@@ -6683,10 +6647,6 @@
         <f>F44/F38</f>
         <v>1</v>
       </c>
-      <c r="G51" t="e">
-        <f>G44/G38</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
@@ -6704,10 +6664,6 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" t="e">
-        <f>G45/G38</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
@@ -6718,20 +6674,16 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D53:G53" si="6">SUM(D49:D52)</f>
+        <f t="shared" ref="D53:F53" si="5">SUM(D49:D52)</f>
         <v>1</v>
       </c>
       <c r="E53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F53">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G53" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6775,10 +6727,6 @@
         <f>F17*F55</f>
         <v>1.2109890109890111E-2</v>
       </c>
-      <c r="G57">
-        <f>G17*G55</f>
-        <v>0</v>
-      </c>
       <c r="H57">
         <f>SUM(C57:G57)</f>
         <v>0.12686813186813187</v>
@@ -6804,10 +6752,6 @@
         <f>F14*F55</f>
         <v>5.7142857142857147E-4</v>
       </c>
-      <c r="G58">
-        <f>G14*G55</f>
-        <v>0</v>
-      </c>
       <c r="H58">
         <f>SUM(C58:G58)</f>
         <v>1.8214285714285714E-2</v>
@@ -6837,10 +6781,6 @@
         <f>F15*F55</f>
         <v>1.1538461538461539E-2</v>
       </c>
-      <c r="G59">
-        <f>G15*G55</f>
-        <v>0</v>
-      </c>
       <c r="H59">
         <f>SUM(C59:G59)</f>
         <v>0.10865384615384616</v>
@@ -6913,7 +6853,7 @@
         <v>44</v>
       </c>
       <c r="B64" s="7">
-        <f t="shared" ref="B64:B68" si="7">1/C64</f>
+        <f t="shared" ref="B64:B68" si="6">1/C64</f>
         <v>45.004500450045008</v>
       </c>
       <c r="C64">
@@ -6945,7 +6885,7 @@
         <v>47</v>
       </c>
       <c r="B67" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>35.001750087504377</v>
       </c>
       <c r="C67">
@@ -6977,7 +6917,7 @@
         <v>48</v>
       </c>
       <c r="B68" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>17.40341106856944</v>
       </c>
       <c r="C68">
@@ -7089,10 +7029,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7115,7 +7055,7 @@
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7132,14 +7072,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7155,9 +7092,8 @@
       <c r="F2" s="6">
         <v>250</v>
       </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7173,9 +7109,8 @@
       <c r="F3" s="6">
         <v>100</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -7189,9 +7124,8 @@
       <c r="F4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -7199,9 +7133,8 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -7217,16 +7150,14 @@
       <c r="F6" s="6">
         <v>11</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -7234,9 +7165,8 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -7256,9 +7186,8 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7278,9 +7207,8 @@
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -7297,9 +7225,8 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -7318,9 +7245,8 @@
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7340,9 +7266,8 @@
         <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -7362,13 +7287,12 @@
         <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
-        <f>SUM(C14:G14)</f>
+      <c r="G14" s="7">
+        <f>SUM(C14:F14)</f>
         <v>0.11763095238095239</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -7385,13 +7309,12 @@
         <f t="shared" si="4"/>
         <v>0.10090909090909091</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
-        <f>SUM(C15:G15)</f>
+      <c r="G15" s="7">
+        <f>SUM(C15:F15)</f>
         <v>0.29696969696969694</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -7399,9 +7322,8 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -7421,13 +7343,12 @@
         <f t="shared" si="5"/>
         <v>0.10490909090909091</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
-        <f>SUM(C17:G17)</f>
+      <c r="G17" s="7">
+        <f>SUM(C17:F17)</f>
         <v>0.41460064935064933</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -7447,24 +7368,21 @@
         <f t="shared" si="6"/>
         <v>0.10490909090909091</v>
       </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:16">
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -7474,18 +7392,16 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -7494,9 +7410,8 @@
         <v>1</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -7505,24 +7420,16 @@
       <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="7">
-        <f>G12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7" t="e">
-        <f>1/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+    </row>
+    <row r="26" spans="1:16">
       <c r="D26" s="7"/>
       <c r="E26" s="7">
         <f t="shared" ref="E26" si="7">SUM(E21:E23)</f>
@@ -7532,12 +7439,8 @@
         <f>SUM(F21:F25)</f>
         <v>1</v>
       </c>
-      <c r="G26" s="7" t="e">
-        <f>SUM(G21:G25)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -7546,19 +7449,15 @@
         <v>0.13023255813953488</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:G29" si="8">E11/E14</f>
+        <f t="shared" ref="E28:F29" si="8">E11/E14</f>
         <v>0</v>
       </c>
       <c r="F28">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G28" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -7573,12 +7472,8 @@
         <f t="shared" si="8"/>
         <v>9.90990990990991E-2</v>
       </c>
-      <c r="G29" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+    </row>
+    <row r="30" spans="1:16">
       <c r="C30">
         <v>0.2092</v>
       </c>
@@ -7592,52 +7487,45 @@
         <v>0.2064</v>
       </c>
       <c r="G30">
-        <v>0.19020000000000001</v>
-      </c>
-      <c r="H30">
-        <f>SUM(C30:G30)</f>
-        <v>1</v>
-      </c>
+        <f>SUM(C30:F30)</f>
+        <v>0.80980000000000008</v>
+      </c>
+      <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="1:17">
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21">
-        <f>C17/$H$17</f>
+        <f>C17/$G$17</f>
         <v>0.24693871691060348</v>
       </c>
       <c r="D31" s="21">
-        <f>D17/$H$17</f>
+        <f>D17/$G$17</f>
         <v>0.22913615824960651</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" ref="E31:G31" si="9">E17/$H$17</f>
+        <f>E17/$G$17</f>
         <v>0.27088864003591834</v>
       </c>
       <c r="F31" s="21">
-        <f t="shared" si="9"/>
+        <f>F17/$G$17</f>
         <v>0.2530364848038717</v>
       </c>
-      <c r="G31" s="21">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f>SUM(C31:G31)</f>
-        <v>1</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="G31">
+        <f>SUM(C31:F31)</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="21" t="s">
         <v>27</v>
       </c>
@@ -7647,28 +7535,24 @@
         <v>1</v>
       </c>
       <c r="D32" s="21">
-        <f t="shared" ref="D32:F32" si="10">D14/D17</f>
+        <f t="shared" ref="D32:F32" si="9">D14/D17</f>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="E32" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.5649241146711645E-2</v>
       </c>
       <c r="F32" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.8128249566724434E-2</v>
       </c>
-      <c r="G32" s="21" t="e">
-        <f>G14/G17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32">
-        <f>H14/$H$14</f>
-        <v>1</v>
-      </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="G32">
+        <f>G14/$G$14</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="21" t="s">
         <v>28</v>
       </c>
@@ -7678,49 +7562,48 @@
         <v>0</v>
       </c>
       <c r="D33" s="21">
-        <f t="shared" ref="D33:G33" si="11">D15/D17</f>
+        <f t="shared" ref="D33:F33" si="10">D15/D17</f>
         <v>0.94736842105263153</v>
       </c>
       <c r="E33" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.94435075885328845</v>
       </c>
       <c r="F33" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.96187175043327555</v>
       </c>
-      <c r="G33" s="21" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33">
-        <f>H15/$H$15</f>
-        <v>1</v>
-      </c>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="G33">
+        <f>G15/$G$15</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="C36">
         <f>C32</f>
         <v>1</v>
+      </c>
+      <c r="D36">
+        <f>D32</f>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E36">
         <f>E32</f>
@@ -7730,36 +7613,37 @@
         <f>F32</f>
         <v>3.8128249566724434E-2</v>
       </c>
-      <c r="G36" t="e">
-        <f>G32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
+      <c r="D37">
+        <f>D33*0.3</f>
+        <v>0.28421052631578947</v>
+      </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
         <v>0</v>
+      </c>
+      <c r="D38">
+        <f>D33*0.7</f>
+        <v>0.66315789473684206</v>
       </c>
       <c r="E38" s="7">
         <f>E33</f>
@@ -7768,11 +7652,8 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -7786,13 +7667,9 @@
         <f>F33</f>
         <v>0.96187175043327555</v>
       </c>
-      <c r="G39" t="e">
-        <f>(1/G3)/G17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -7805,13 +7682,9 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" t="e">
-        <f>(G13)/G17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q40" s="6"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -7819,25 +7692,25 @@
         <f>SUM(C36:C40)</f>
         <v>1</v>
       </c>
+      <c r="D41">
+        <f>SUM(D36:D40)</f>
+        <v>1</v>
+      </c>
       <c r="E41">
-        <f t="shared" ref="E41:F41" si="12">SUM(E36:E40)</f>
+        <f t="shared" ref="E41:F41" si="11">SUM(E36:E40)</f>
         <v>1</v>
       </c>
       <c r="F41" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G41" t="e">
-        <f>SUM(G36:G40)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -7850,11 +7723,8 @@
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -7868,11 +7738,8 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -7886,12 +7753,8 @@
         <f>F39/F33</f>
         <v>1</v>
       </c>
-      <c r="G46" t="e">
-        <f>G39/G33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -7904,12 +7767,8 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" t="e">
-        <f>G40/G33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -7918,16 +7777,12 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:G48" si="13">SUM(E44:E47)</f>
+        <f t="shared" ref="E48:F48" si="12">SUM(E44:E47)</f>
         <v>1</v>
       </c>
       <c r="F48">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="G48" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -7946,8 +7801,8 @@
       <c r="F50">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H50">
-        <f>SUM(C50:G50)</f>
+      <c r="G50">
+        <f>SUM(C50:F50)</f>
         <v>1</v>
       </c>
     </row>
@@ -7972,11 +7827,7 @@
         <v>5.7700000000000008E-2</v>
       </c>
       <c r="G52">
-        <f>G17*G50</f>
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f>SUM(C52:G52)</f>
+        <f>SUM(C52:F52)</f>
         <v>0.10588479437229438</v>
       </c>
     </row>
@@ -8001,14 +7852,10 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="G53">
-        <f>G14*G50</f>
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f>SUM(C53:G53)</f>
+        <f>SUM(C53:F53)</f>
         <v>1.9369642857142856E-2</v>
       </c>
-      <c r="J53">
+      <c r="I53">
         <f>0.2*0.02+0.1*1/75+0.25*1/315+0.4*0.001+0.05*1/60</f>
         <v>7.3603174603174611E-3</v>
       </c>
@@ -8034,15 +7881,11 @@
         <v>5.5500000000000001E-2</v>
       </c>
       <c r="G54">
-        <f>G15*G50</f>
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f>SUM(C54:G54)</f>
+        <f>SUM(C54:F54)</f>
         <v>8.6515151515151517E-2</v>
       </c>
-      <c r="J54">
-        <f>H14/H17</f>
+      <c r="I54">
+        <f>G14/G17</f>
         <v>0.28372110020856667</v>
       </c>
     </row>
@@ -8092,7 +7935,7 @@
         <v>1.2291186537821155E-2</v>
       </c>
       <c r="H58">
-        <f>H53</f>
+        <f>G53</f>
         <v>1.9369642857142856E-2</v>
       </c>
       <c r="I58">
@@ -8109,7 +7952,7 @@
         <v>44</v>
       </c>
       <c r="B59" s="7">
-        <f t="shared" ref="B59:B63" si="14">1/C59</f>
+        <f t="shared" ref="B59:B63" si="13">1/C59</f>
         <v>45.004500450045008</v>
       </c>
       <c r="C59">
@@ -8141,7 +7984,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>35.001750087504377</v>
       </c>
       <c r="C62">
@@ -8156,7 +7999,7 @@
         <v>5.2647556129767681E-2</v>
       </c>
       <c r="H62">
-        <f>H54</f>
+        <f>G54</f>
         <v>8.6515151515151517E-2</v>
       </c>
       <c r="I62">
@@ -8173,7 +8016,7 @@
         <v>48</v>
       </c>
       <c r="B63" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>17.40341106856944</v>
       </c>
       <c r="C63">
@@ -8184,7 +8027,7 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="F63">
-        <f>H52</f>
+        <f>G52</f>
         <v>0.10588479437229438</v>
       </c>
       <c r="H63">
@@ -8285,10 +8128,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8311,7 +8154,7 @@
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8335,7 +8178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8343,51 +8186,43 @@
         <v>175</v>
       </c>
       <c r="D2" s="6">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="E2" s="6">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="F2" s="6">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
-        <v>75</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="6">
-        <v>150</v>
-      </c>
-      <c r="E3" s="6">
-        <v>66</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="6">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -8397,32 +8232,32 @@
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -8432,7 +8267,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -8442,152 +8277,145 @@
       </c>
       <c r="D9" s="7">
         <f>1/D2</f>
-        <v>4.0000000000000001E-3</v>
+        <v>5.7142857142857143E-3</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" ref="D9:F10" si="0">1/E2</f>
-        <v>6.2500000000000003E-3</v>
+        <f>1/E2</f>
+        <v>5.7142857142857143E-3</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
+        <f>1/F2</f>
+        <v>5.7142857142857143E-3</v>
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7">
-        <f>1/C3</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5151515151515152E-2</v>
-      </c>
+        <f>1/D3</f>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
+        <f>1/F3</f>
+        <v>1.5384615384615385E-2</v>
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7">
-        <f>C10</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
       <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="7">
         <v>0</v>
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12" s="7">
-        <f t="shared" ref="D12:F12" si="1">D10</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5151515151515152E-2</v>
-      </c>
+        <f>1/D3</f>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f>1/F3</f>
+        <v>1.5384615384615385E-2</v>
       </c>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="e">
+        <f>G12/2/G15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7">
         <f>1/C6</f>
-        <v>0.05</v>
+        <v>0.125</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" ref="D13:F13" si="2">1/D6</f>
-        <v>0.05</v>
+        <f>1/D6</f>
+        <v>0.1</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
+        <f>1/E6</f>
+        <v>0.125</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
+        <f>1/F6</f>
+        <v>0.1</v>
       </c>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="7" t="e">
+        <f>G12/G15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <f>C9+C11+C13</f>
-        <v>6.9047619047619052E-2</v>
+        <f>C9+C13</f>
+        <v>0.13071428571428573</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" ref="D14:F14" si="3">D9+D11</f>
-        <v>4.0000000000000001E-3</v>
+        <f>D9+D11</f>
+        <v>5.7142857142857143E-3</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="3"/>
-        <v>6.2500000000000003E-3</v>
+        <f>E9+E11</f>
+        <v>5.7142857142857143E-3</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000001E-3</v>
+        <f>F9+F11</f>
+        <v>5.7142857142857143E-3</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
         <f>SUM(C14:G14)</f>
-        <v>8.3297619047619065E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.14785714285714291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7">
+        <f>C12</f>
+        <v>0</v>
+      </c>
       <c r="D15" s="7">
-        <f t="shared" ref="D15:F15" si="4">D12+D13</f>
-        <v>5.6666666666666671E-2</v>
+        <f>D12+D13</f>
+        <v>0.11538461538461539</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="4"/>
-        <v>6.5151515151515155E-2</v>
+        <f>E12+E13</f>
+        <v>0.125</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="4"/>
-        <v>6.0000000000000005E-2</v>
+        <f>F12+F13</f>
+        <v>0.11538461538461539</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <f>SUM(C15:G15)</f>
-        <v>0.18181818181818182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.35576923076923078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -8597,61 +8425,65 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="7">
         <f>C9+C10+C13</f>
-        <v>6.9047619047619052E-2</v>
+        <v>0.13071428571428573</v>
       </c>
       <c r="D17" s="7">
         <f>D9+D10+D13</f>
-        <v>6.0666666666666674E-2</v>
+        <v>0.1210989010989011</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" ref="D17:F17" si="5">E9+E10+E13</f>
-        <v>7.140151515151516E-2</v>
+        <f>E9+E10+E13</f>
+        <v>0.13071428571428573</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="5"/>
-        <v>6.4000000000000001E-2</v>
+        <f>F9+F10+F13</f>
+        <v>0.1210989010989011</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7">
         <f>SUM(C17:G17)</f>
-        <v>0.26511580086580089</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.50362637362637364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="7">
         <f>C14+C15</f>
-        <v>6.9047619047619052E-2</v>
+        <v>0.13071428571428573</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" ref="D18:F18" si="6">D14+D15</f>
-        <v>6.0666666666666674E-2</v>
+        <f>D14+D15</f>
+        <v>0.1210989010989011</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="6"/>
-        <v>7.140151515151516E-2</v>
+        <f>E14+E15</f>
+        <v>0.13071428571428573</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="6"/>
-        <v>6.4000000000000001E-2</v>
+        <f>F14+F15</f>
+        <v>0.1210989010989011</v>
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:12">
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="L19">
+        <f>L20+L21+L22</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -8659,8 +8491,20 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="J20">
+        <f>D9/D17</f>
+        <v>4.7186932849364788E-2</v>
+      </c>
+      <c r="K20">
+        <f>0.15/J20</f>
+        <v>3.1788461538461541</v>
+      </c>
+      <c r="L20">
+        <f>J20*K20</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -8671,8 +8515,16 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="J21">
+        <f>D10/D17</f>
+        <v>0.12704174228675136</v>
+      </c>
+      <c r="K21">
+        <f>J21*K23</f>
+        <v>0.11333333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -8680,19 +8532,41 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="J22">
+        <f>D13/D17</f>
+        <v>0.82577132486388383</v>
+      </c>
+      <c r="K22">
+        <f>J22*K23</f>
+        <v>0.73666666666666658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
       <c r="E23" s="7">
         <v>1</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="J23">
+        <f>D15/D17</f>
+        <v>0.95281306715063518</v>
+      </c>
+      <c r="K23">
+        <f>0.85/J23</f>
+        <v>0.89209523809523805</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L21:L23" si="0">J23*K23</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -8701,729 +8575,662 @@
       <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="7">
-        <f>G12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7" t="e">
-        <f>1/G6</f>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27">
+        <f>K21+K22</f>
+        <v>0.84999999999999987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:F34" si="1">C11/C14</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
-        <f t="shared" ref="E26" si="7">SUM(E21:E23)</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="7">
-        <f>SUM(F21:F25)</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="7" t="e">
-        <f>SUM(G21:G25)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <f>C11/C14</f>
-        <v>0.19310344827586207</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ref="E28:G29" si="8">E11/E14</f>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G28" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="8"/>
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="8"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G29" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="C30">
-        <v>0.2092</v>
-      </c>
-      <c r="D30">
-        <v>0.18060000000000001</v>
-      </c>
-      <c r="E30">
-        <v>0.21360000000000001</v>
-      </c>
-      <c r="F30">
-        <v>0.2064</v>
-      </c>
-      <c r="G30">
-        <v>0.19020000000000001</v>
-      </c>
-      <c r="H30">
-        <f>SUM(C30:G30)</f>
-        <v>1</v>
-      </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="20" t="s">
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21">
         <f>C17/$H$17</f>
-        <v>0.26044324337563834</v>
-      </c>
-      <c r="D31" s="21">
-        <f>D17/$H$17</f>
-        <v>0.2288308221107333</v>
-      </c>
-      <c r="E31" s="21">
-        <f t="shared" ref="E31:G31" si="9">E17/$H$17</f>
-        <v>0.26932199030889875</v>
-      </c>
-      <c r="F31" s="21">
-        <f t="shared" si="9"/>
-        <v>0.2414039442047296</v>
-      </c>
-      <c r="G31" s="21">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f>SUM(C31:G31)</f>
-        <v>1</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21">
-        <f>C14/C17</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="21">
-        <f t="shared" ref="D32:F32" si="10">D14/D17</f>
-        <v>6.5934065934065922E-2</v>
-      </c>
-      <c r="E32" s="21">
-        <f t="shared" si="10"/>
-        <v>8.7533156498673728E-2</v>
-      </c>
-      <c r="F32" s="21">
-        <f t="shared" si="10"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G32" s="21" t="e">
-        <f>G14/G17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32">
-        <f>H14/$H$14</f>
-        <v>1</v>
-      </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21">
-        <f>C15/C17</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="21">
-        <f t="shared" ref="D33:G33" si="11">D15/D17</f>
-        <v>0.93406593406593397</v>
-      </c>
-      <c r="E33" s="21">
-        <f t="shared" si="11"/>
-        <v>0.91246684350132623</v>
-      </c>
-      <c r="F33" s="21">
-        <f t="shared" si="11"/>
-        <v>0.9375</v>
-      </c>
-      <c r="G33" s="21" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33">
-        <f>H15/$H$15</f>
-        <v>1</v>
-      </c>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <f>C32</f>
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <f>E32</f>
-        <v>8.7533156498673728E-2</v>
-      </c>
-      <c r="F36">
-        <f>F32</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G36" t="e">
-        <f>G32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="8"/>
+        <v>0.25954614881082261</v>
+      </c>
+      <c r="D36" s="21">
+        <f t="shared" ref="D36:H36" si="2">D17/$H$17</f>
+        <v>0.24045385118917739</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="2"/>
+        <v>0.25954614881082261</v>
+      </c>
+      <c r="F36" s="21">
+        <f t="shared" si="2"/>
+        <v>0.24045385118917739</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="8">
+        <f>SUM(C36:G36)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <f>C14/C17</f>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.15</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
+        <v>0.15</v>
+      </c>
+      <c r="H37">
+        <f>H14/$H$14</f>
+        <v>1</v>
       </c>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
-        <f>E33</f>
-        <v>0.91246684350132623</v>
+        <f>C15/C17</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0.85</v>
+      </c>
+      <c r="E38">
+        <v>0.85</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
+        <v>0.85</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ref="H38" si="3">H15/$H$15</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f>F33</f>
-        <v>0.9375</v>
-      </c>
-      <c r="G39" t="e">
-        <f>(1/G3)/G17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="e">
-        <f>(G13)/G17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q40" s="6"/>
+      <c r="A40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41">
-        <f>SUM(C36:C40)</f>
-        <v>1</v>
+        <f>C37</f>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f>D37</f>
+        <v>0.15</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41:F41" si="12">SUM(E36:E40)</f>
-        <v>1</v>
-      </c>
-      <c r="F41" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="G41" t="e">
-        <f>SUM(G36:G40)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>E37</f>
+        <v>0.15</v>
+      </c>
+      <c r="F41">
+        <f>F37</f>
+        <v>0.15</v>
+      </c>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0.73666666666666658</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="5" t="s">
-        <v>32</v>
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="E43" s="7">
+        <f>E38</f>
+        <v>0.85</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
+        <f>F38</f>
+        <v>0.85</v>
+      </c>
+      <c r="Q44" s="6"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="E45" s="7">
-        <f>E38/E33</f>
-        <v>1</v>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
+      <c r="Q45" s="6"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <f>SUM(C41:C45)</f>
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:F46" si="4">SUM(D41:D45)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f>D42/D38</f>
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f>D43/D38</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E50" s="7">
+        <f>E43/E38</f>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
         <v>4</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f>F39/F33</f>
-        <v>1</v>
-      </c>
-      <c r="G46" t="e">
-        <f>G39/G33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" t="s">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>F44/F38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
         <v>5</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="e">
-        <f>G40/G33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48">
-        <f>SUM(C44:C47)</f>
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ref="E48:G48" si="13">SUM(E44:E47)</f>
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="G48" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50">
-        <v>0.15</v>
-      </c>
-      <c r="D50">
-        <v>0.05</v>
-      </c>
-      <c r="E50">
-        <v>0.25</v>
-      </c>
-      <c r="F50">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H50">
-        <f>SUM(C50:G50)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C52">
-        <f>C17*C50</f>
-        <v>1.0357142857142858E-2</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <f>D17*D50</f>
-        <v>3.0333333333333341E-3</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <f>E17*E50</f>
-        <v>1.785037878787879E-2</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <f>F17*F50</f>
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="G52">
-        <f>G17*G50</f>
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f>SUM(C52:G52)</f>
-        <v>6.6440854978354988E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53">
+        <f>SUM(C49:C52)</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:F53" si="5">SUM(D49:D52)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55">
+        <v>0.1</v>
+      </c>
+      <c r="D55">
+        <v>0.3</v>
+      </c>
+      <c r="E55">
+        <v>0.5</v>
+      </c>
+      <c r="F55">
+        <v>0.1</v>
+      </c>
+      <c r="H55">
+        <f>SUM(C55:G55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <f>C17*C55</f>
+        <v>1.3071428571428574E-2</v>
+      </c>
+      <c r="D57">
+        <f>D17*D55</f>
+        <v>3.6329670329670327E-2</v>
+      </c>
+      <c r="E57">
+        <f>E17*E55</f>
+        <v>6.5357142857142864E-2</v>
+      </c>
+      <c r="F57">
+        <f>F17*F55</f>
+        <v>1.2109890109890111E-2</v>
+      </c>
+      <c r="H57">
+        <f>SUM(C57:G57)</f>
+        <v>0.12686813186813187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
         <v>35</v>
       </c>
-      <c r="C53">
-        <f>C14*C50</f>
-        <v>1.0357142857142858E-2</v>
-      </c>
-      <c r="D53">
-        <f>D14*D50</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E53">
-        <f>E14*E50</f>
-        <v>1.5625000000000001E-3</v>
-      </c>
-      <c r="F53">
-        <f>F14*F50</f>
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="G53">
-        <f>G14*G50</f>
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f>SUM(C53:G53)</f>
-        <v>1.4319642857142859E-2</v>
-      </c>
-      <c r="J53">
+      <c r="C58">
+        <f>C14*C55</f>
+        <v>1.3071428571428574E-2</v>
+      </c>
+      <c r="D58">
+        <f>D14*D55</f>
+        <v>1.7142857142857142E-3</v>
+      </c>
+      <c r="E58">
+        <f>E14*E55</f>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="F58">
+        <f>F14*F55</f>
+        <v>5.7142857142857147E-4</v>
+      </c>
+      <c r="H58">
+        <f>SUM(C58:G58)</f>
+        <v>1.8214285714285714E-2</v>
+      </c>
+      <c r="J58">
         <f>0.2*0.02+0.1*1/75+0.25*1/315+0.4*0.001+0.05*1/60</f>
         <v>7.3603174603174611E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="10" t="s">
+    <row r="59" spans="1:10">
+      <c r="A59" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C54">
-        <f>C15*C50</f>
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <f>D15*D50</f>
-        <v>2.8333333333333335E-3</v>
-      </c>
-      <c r="E54">
-        <f>E15*E50</f>
-        <v>1.6287878787878789E-2</v>
-      </c>
-      <c r="F54">
-        <f>F15*F50</f>
-        <v>3.3000000000000008E-2</v>
-      </c>
-      <c r="G54">
-        <f>G15*G50</f>
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f>SUM(C54:G54)</f>
-        <v>5.2121212121212131E-2</v>
-      </c>
-      <c r="J54">
+      <c r="C59">
+        <f>C15*C55</f>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f>D15*D55</f>
+        <v>3.4615384615384617E-2</v>
+      </c>
+      <c r="E59">
+        <f>E15*E55</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F59">
+        <f>F15*F55</f>
+        <v>1.1538461538461539E-2</v>
+      </c>
+      <c r="H59">
+        <f>SUM(C59:G59)</f>
+        <v>0.10865384615384616</v>
+      </c>
+      <c r="J59">
         <f>H14/H17</f>
-        <v>0.3141933403274727</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="5" t="s">
+        <v>0.2935849879991273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B62" t="s">
         <v>38</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C62" t="s">
         <v>39</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D62" t="s">
         <v>40</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F62" t="s">
         <v>41</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H62" t="s">
         <v>42</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I62" t="s">
         <v>38</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J62" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="7">
-        <f>1/C58</f>
-        <v>149.92503748125938</v>
-      </c>
-      <c r="C58">
-        <v>6.6699999999999997E-3</v>
-      </c>
-      <c r="D58">
-        <f>C58/C63</f>
-        <v>0.11608075182735816</v>
-      </c>
-      <c r="F58">
-        <f>F63*D58</f>
-        <v>7.7125043979399191E-3</v>
-      </c>
-      <c r="H58">
-        <f>H53</f>
-        <v>1.4319642857142859E-2</v>
-      </c>
-      <c r="I58">
-        <f>1/H58</f>
-        <v>69.834143908217968</v>
-      </c>
-      <c r="J58">
-        <f>H58/H63</f>
-        <v>0.2155246626764194</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="7">
-        <f t="shared" ref="B59:B63" si="14">1/C59</f>
-        <v>45.004500450045008</v>
-      </c>
-      <c r="C59">
-        <v>2.222E-2</v>
-      </c>
-      <c r="D59">
-        <f>C59/C63</f>
-        <v>0.38670379394361298</v>
-      </c>
-      <c r="F59">
-        <f>F63*D59</f>
-        <v>2.5692930692987261E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="7">
-        <f t="shared" si="14"/>
-        <v>35.001750087504377</v>
-      </c>
-      <c r="C62">
-        <v>2.8570000000000002E-2</v>
-      </c>
-      <c r="D62">
-        <f>C62/C63</f>
-        <v>0.49721545422902896</v>
-      </c>
-      <c r="F62">
-        <f>F63*D62</f>
-        <v>3.3035419887427815E-2</v>
-      </c>
-      <c r="H62">
-        <f>H54</f>
-        <v>5.2121212121212131E-2</v>
-      </c>
-      <c r="I62">
-        <f>1/H62</f>
-        <v>19.186046511627904</v>
-      </c>
-      <c r="J62">
-        <f>H62/H63</f>
-        <v>0.78447533732358066</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B63" s="7">
-        <f t="shared" si="14"/>
-        <v>17.40341106856944</v>
+        <f>1/C63</f>
+        <v>149.92503748125938</v>
       </c>
       <c r="C63">
-        <v>5.7459999999999997E-2</v>
+        <v>6.6699999999999997E-3</v>
       </c>
       <c r="D63">
-        <f>D58+D59+D62</f>
-        <v>1.0000000000000002</v>
+        <f>C63/C68</f>
+        <v>0.11608075182735816</v>
       </c>
       <c r="F63">
-        <f>H52</f>
-        <v>6.6440854978354988E-2</v>
+        <f>F68*D63</f>
+        <v>1.4726948130185165E-2</v>
       </c>
       <c r="H63">
-        <f>H58+H62</f>
-        <v>6.6440854978354988E-2</v>
+        <f>H58</f>
+        <v>1.8214285714285714E-2</v>
       </c>
       <c r="I63">
         <f>1/H63</f>
-        <v>15.050980309115207</v>
+        <v>54.901960784313729</v>
       </c>
       <c r="J63">
-        <f>J58+J62</f>
-        <v>1</v>
+        <f>H63/H68</f>
+        <v>0.14356864443482026</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="2:8">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="7">
+        <f t="shared" ref="B64:B68" si="6">1/C64</f>
+        <v>45.004500450045008</v>
+      </c>
+      <c r="C64">
+        <v>2.222E-2</v>
+      </c>
+      <c r="D64">
+        <f>C64/C68</f>
+        <v>0.38670379394361298</v>
+      </c>
+      <c r="F64">
+        <f>F68*D64</f>
+        <v>4.9060387923945188E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="7"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="7"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="7">
+        <f t="shared" si="6"/>
+        <v>35.001750087504377</v>
+      </c>
+      <c r="C67">
+        <v>2.8570000000000002E-2</v>
+      </c>
+      <c r="D67">
+        <f>C67/C68</f>
+        <v>0.49721545422902896</v>
+      </c>
+      <c r="F67">
+        <f>F68*D67</f>
+        <v>6.3080795814001528E-2</v>
+      </c>
+      <c r="H67">
+        <f>H59</f>
+        <v>0.10865384615384616</v>
+      </c>
+      <c r="I67">
+        <f>1/H67</f>
+        <v>9.2035398230088497</v>
+      </c>
+      <c r="J67">
+        <f>H67/H68</f>
+        <v>0.8564313555651798</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="7">
+        <f t="shared" si="6"/>
+        <v>17.40341106856944</v>
+      </c>
+      <c r="C68">
+        <v>5.7459999999999997E-2</v>
+      </c>
+      <c r="D68">
+        <f>D63+D64+D67</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F68">
+        <f>H57</f>
+        <v>0.12686813186813187</v>
+      </c>
+      <c r="H68">
+        <f>H63+H67</f>
+        <v>0.12686813186813187</v>
+      </c>
+      <c r="I68">
+        <f>1/H68</f>
+        <v>7.8822000866175834</v>
+      </c>
+      <c r="J68">
+        <f>J63+J67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -9432,25 +9239,7 @@
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="1:10">
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -9459,7 +9248,7 @@
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="1:10">
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -9468,8 +9257,54 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
     </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
